--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.293566666666667</v>
+        <v>4.772158333333334</v>
       </c>
       <c r="H2">
-        <v>21.8807</v>
+        <v>14.316475</v>
       </c>
       <c r="I2">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="J2">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N2">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q2">
-        <v>368.0025343689445</v>
+        <v>247.943036228475</v>
       </c>
       <c r="R2">
-        <v>3312.022809320501</v>
+        <v>2231.487326056275</v>
       </c>
       <c r="S2">
-        <v>0.04838266970539171</v>
+        <v>0.05071906254554956</v>
       </c>
       <c r="T2">
-        <v>0.04838266970539169</v>
+        <v>0.05071906254554956</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.293566666666667</v>
+        <v>4.772158333333334</v>
       </c>
       <c r="H3">
-        <v>21.8807</v>
+        <v>14.316475</v>
       </c>
       <c r="I3">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="J3">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P3">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q3">
-        <v>1088.678711612311</v>
+        <v>712.3191469116556</v>
       </c>
       <c r="R3">
-        <v>9798.1084045108</v>
+        <v>6410.8723222049</v>
       </c>
       <c r="S3">
-        <v>0.1431326624137371</v>
+        <v>0.1457115308183664</v>
       </c>
       <c r="T3">
-        <v>0.1431326624137371</v>
+        <v>0.1457115308183664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.293566666666667</v>
+        <v>4.772158333333334</v>
       </c>
       <c r="H4">
-        <v>21.8807</v>
+        <v>14.316475</v>
       </c>
       <c r="I4">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="J4">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N4">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O4">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P4">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q4">
-        <v>96.89666935678889</v>
+        <v>74.15602862211668</v>
       </c>
       <c r="R4">
-        <v>872.0700242111001</v>
+        <v>667.4042575990501</v>
       </c>
       <c r="S4">
-        <v>0.01273936756191453</v>
+        <v>0.01516930788227055</v>
       </c>
       <c r="T4">
-        <v>0.01273936756191452</v>
+        <v>0.01516930788227055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.293566666666667</v>
+        <v>4.772158333333334</v>
       </c>
       <c r="H5">
-        <v>21.8807</v>
+        <v>14.316475</v>
       </c>
       <c r="I5">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="J5">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N5">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q5">
-        <v>228.6617925556556</v>
+        <v>74.86601284103611</v>
       </c>
       <c r="R5">
-        <v>2057.9561330009</v>
+        <v>673.7941155693251</v>
       </c>
       <c r="S5">
-        <v>0.03006302117574955</v>
+        <v>0.01531454178177215</v>
       </c>
       <c r="T5">
-        <v>0.03006302117574954</v>
+        <v>0.01531454178177215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.293566666666667</v>
+        <v>4.772158333333334</v>
       </c>
       <c r="H6">
-        <v>21.8807</v>
+        <v>14.316475</v>
       </c>
       <c r="I6">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="J6">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N6">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q6">
-        <v>27.86208838123333</v>
+        <v>17.96006719980278</v>
       </c>
       <c r="R6">
-        <v>250.7587954311</v>
+        <v>161.640604798225</v>
       </c>
       <c r="S6">
-        <v>0.003663132977503224</v>
+        <v>0.003673899398366953</v>
       </c>
       <c r="T6">
-        <v>0.003663132977503224</v>
+        <v>0.003673899398366953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.293566666666667</v>
+        <v>4.772158333333334</v>
       </c>
       <c r="H7">
-        <v>21.8807</v>
+        <v>14.316475</v>
       </c>
       <c r="I7">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="J7">
-        <v>0.2546895690137356</v>
+        <v>0.2444103987677044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N7">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O7">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P7">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q7">
-        <v>127.0878512807111</v>
+        <v>67.56991245894446</v>
       </c>
       <c r="R7">
-        <v>1143.7906615264</v>
+        <v>608.1292121305</v>
       </c>
       <c r="S7">
-        <v>0.01670871517943949</v>
+        <v>0.01382205634137882</v>
       </c>
       <c r="T7">
-        <v>0.01670871517943949</v>
+        <v>0.01382205634137882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.65871166666667</v>
+        <v>11.54138666666667</v>
       </c>
       <c r="H8">
-        <v>34.976135</v>
+        <v>34.62416</v>
       </c>
       <c r="I8">
-        <v>0.4071193677037862</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="J8">
-        <v>0.4071193677037861</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N8">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q8">
-        <v>588.2492937808362</v>
+        <v>599.6461668993601</v>
       </c>
       <c r="R8">
-        <v>5294.243644027526</v>
+        <v>5396.815502094241</v>
       </c>
       <c r="S8">
-        <v>0.07733933499733511</v>
+        <v>0.1226632209833158</v>
       </c>
       <c r="T8">
-        <v>0.07733933499733509</v>
+        <v>0.1226632209833158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.65871166666667</v>
+        <v>11.54138666666667</v>
       </c>
       <c r="H9">
-        <v>34.976135</v>
+        <v>34.62416</v>
       </c>
       <c r="I9">
-        <v>0.4071193677037862</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="J9">
-        <v>0.4071193677037861</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P9">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q9">
-        <v>1740.244763146438</v>
+        <v>1722.732174905671</v>
       </c>
       <c r="R9">
-        <v>15662.20286831794</v>
+        <v>15504.58957415104</v>
       </c>
       <c r="S9">
-        <v>0.228796488388959</v>
+        <v>0.3524009476424922</v>
       </c>
       <c r="T9">
-        <v>0.228796488388959</v>
+        <v>0.3524009476424922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.65871166666667</v>
+        <v>11.54138666666667</v>
       </c>
       <c r="H10">
-        <v>34.976135</v>
+        <v>34.62416</v>
       </c>
       <c r="I10">
-        <v>0.4071193677037862</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="J10">
-        <v>0.4071193677037861</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N10">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O10">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P10">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q10">
-        <v>154.8885999293172</v>
+        <v>179.3451390776534</v>
       </c>
       <c r="R10">
-        <v>1393.997399363855</v>
+        <v>1614.10625169888</v>
       </c>
       <c r="S10">
-        <v>0.02036378359285321</v>
+        <v>0.03668672233947231</v>
       </c>
       <c r="T10">
-        <v>0.0203637835928532</v>
+        <v>0.0366867223394723</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.65871166666667</v>
+        <v>11.54138666666667</v>
       </c>
       <c r="H11">
-        <v>34.976135</v>
+        <v>34.62416</v>
       </c>
       <c r="I11">
-        <v>0.4071193677037862</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="J11">
-        <v>0.4071193677037861</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N11">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q11">
-        <v>365.5141620591939</v>
+        <v>181.0622242675022</v>
       </c>
       <c r="R11">
-        <v>3289.627458532745</v>
+        <v>1629.56001840752</v>
       </c>
       <c r="S11">
-        <v>0.0480555140900828</v>
+        <v>0.03703796814360827</v>
       </c>
       <c r="T11">
-        <v>0.04805551409008278</v>
+        <v>0.03703796814360827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.65871166666667</v>
+        <v>11.54138666666667</v>
       </c>
       <c r="H12">
-        <v>34.976135</v>
+        <v>34.62416</v>
       </c>
       <c r="I12">
-        <v>0.4071193677037862</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="J12">
-        <v>0.4071193677037861</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N12">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q12">
-        <v>44.53733950942834</v>
+        <v>43.43612798099555</v>
       </c>
       <c r="R12">
-        <v>400.836055584855</v>
+        <v>390.9251518289599</v>
       </c>
       <c r="S12">
-        <v>0.005855490617032577</v>
+        <v>0.008885265443690653</v>
       </c>
       <c r="T12">
-        <v>0.005855490617032576</v>
+        <v>0.008885265443690653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.65871166666667</v>
+        <v>11.54138666666667</v>
       </c>
       <c r="H13">
-        <v>34.976135</v>
+        <v>34.62416</v>
       </c>
       <c r="I13">
-        <v>0.4071193677037862</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="J13">
-        <v>0.4071193677037861</v>
+        <v>0.591102541135077</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N13">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O13">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P13">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q13">
-        <v>203.1489780150578</v>
+        <v>163.4167251480889</v>
       </c>
       <c r="R13">
-        <v>1828.34080213552</v>
+        <v>1470.7505263328</v>
       </c>
       <c r="S13">
-        <v>0.02670875601752343</v>
+        <v>0.03342841658249779</v>
       </c>
       <c r="T13">
-        <v>0.02670875601752342</v>
+        <v>0.03342841658249779</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.684806</v>
+        <v>3.211640333333333</v>
       </c>
       <c r="H14">
-        <v>29.054418</v>
+        <v>9.634920999999999</v>
       </c>
       <c r="I14">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="J14">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N14">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q14">
-        <v>488.6543601719634</v>
+        <v>166.864508656041</v>
       </c>
       <c r="R14">
-        <v>4397.889241547671</v>
+        <v>1501.780577904369</v>
       </c>
       <c r="S14">
-        <v>0.06424521654135322</v>
+        <v>0.03413369288322921</v>
       </c>
       <c r="T14">
-        <v>0.06424521654135321</v>
+        <v>0.03413369288322921</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.684806</v>
+        <v>3.211640333333333</v>
       </c>
       <c r="H15">
-        <v>29.054418</v>
+        <v>9.634920999999999</v>
       </c>
       <c r="I15">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="J15">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P15">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q15">
-        <v>1445.608520517421</v>
+        <v>479.3874684432582</v>
       </c>
       <c r="R15">
-        <v>13010.47668465679</v>
+        <v>4314.487215989324</v>
       </c>
       <c r="S15">
-        <v>0.1900595594849163</v>
+        <v>0.09806318162983731</v>
       </c>
       <c r="T15">
-        <v>0.1900595594849163</v>
+        <v>0.09806318162983731</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.684806</v>
+        <v>3.211640333333333</v>
       </c>
       <c r="H16">
-        <v>29.054418</v>
+        <v>9.634920999999999</v>
       </c>
       <c r="I16">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="J16">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N16">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O16">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P16">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q16">
-        <v>128.6648203348127</v>
+        <v>49.90666190160866</v>
       </c>
       <c r="R16">
-        <v>1157.983383013314</v>
+        <v>449.1599571144779</v>
       </c>
       <c r="S16">
-        <v>0.01691604519962823</v>
+        <v>0.01020887355793616</v>
       </c>
       <c r="T16">
-        <v>0.01691604519962823</v>
+        <v>0.01020887355793616</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.684806</v>
+        <v>3.211640333333333</v>
       </c>
       <c r="H17">
-        <v>29.054418</v>
+        <v>9.634920999999999</v>
       </c>
       <c r="I17">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="J17">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N17">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q17">
-        <v>303.6299250728406</v>
+        <v>50.38447797438744</v>
       </c>
       <c r="R17">
-        <v>2732.669325655566</v>
+        <v>453.4603017694869</v>
       </c>
       <c r="S17">
-        <v>0.03991936197576306</v>
+        <v>0.01030661529591425</v>
       </c>
       <c r="T17">
-        <v>0.03991936197576304</v>
+        <v>0.01030661529591425</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.684806</v>
+        <v>3.211640333333333</v>
       </c>
       <c r="H18">
-        <v>29.054418</v>
+        <v>9.634920999999999</v>
       </c>
       <c r="I18">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="J18">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N18">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q18">
-        <v>36.996840237346</v>
+        <v>12.08704158145011</v>
       </c>
       <c r="R18">
-        <v>332.9715621361141</v>
+        <v>108.783374233051</v>
       </c>
       <c r="S18">
-        <v>0.004864112972526622</v>
+        <v>0.002472517184936454</v>
       </c>
       <c r="T18">
-        <v>0.004864112972526622</v>
+        <v>0.002472517184936454</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.684806</v>
+        <v>3.211640333333333</v>
       </c>
       <c r="H19">
-        <v>29.054418</v>
+        <v>9.634920999999999</v>
       </c>
       <c r="I19">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="J19">
-        <v>0.3381910632824783</v>
+        <v>0.1644870600972187</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N19">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O19">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P19">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q19">
-        <v>168.7543613244373</v>
+        <v>45.47423639679778</v>
       </c>
       <c r="R19">
-        <v>1518.789251919936</v>
+        <v>409.2681275711799</v>
       </c>
       <c r="S19">
-        <v>0.02218676710829087</v>
+        <v>0.00930217954536532</v>
       </c>
       <c r="T19">
-        <v>0.02218676710829087</v>
+        <v>0.00930217954536532</v>
       </c>
     </row>
   </sheetData>
